--- a/Tabelas equivalência e casos de teste.xlsx
+++ b/Tabelas equivalência e casos de teste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunof\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunof\Desktop\Universidade\PAW\ESII--TP2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653E098F-A8BE-4DF6-8DDB-1324C3029139}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B66C05-D104-423F-8A9F-BD190FF711B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="79">
   <si>
     <t>Critério</t>
   </si>
@@ -53,256 +53,220 @@
     <t>Casos de Teste</t>
   </si>
   <si>
-    <t>matrizOcorrencia</t>
-  </si>
-  <si>
     <t>≠ 1</t>
   </si>
   <si>
-    <t>file_c - int</t>
-  </si>
-  <si>
-    <t>file_c ≠ int</t>
-  </si>
-  <si>
-    <t>file_c &gt; 0</t>
-  </si>
-  <si>
-    <t>file_c =&lt; 0</t>
-  </si>
-  <si>
-    <t>file_c = 1</t>
-  </si>
-  <si>
-    <t>file_c = 1, 2</t>
-  </si>
-  <si>
-    <t>file_c = "a"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">file_c = </t>
-  </si>
-  <si>
-    <t>file_c = 0</t>
-  </si>
-  <si>
-    <t>matrizQuery</t>
-  </si>
-  <si>
     <t>≠ 3</t>
   </si>
   <si>
-    <t>matrizM &gt; 0, n_file &gt; 0, np_file &gt; 0</t>
-  </si>
-  <si>
-    <t>matrizM - int, n_file - int, np_file - int</t>
-  </si>
-  <si>
-    <t>matrizM ≠ int, n_file ≠ int, np_file ≠ int</t>
-  </si>
-  <si>
-    <t>matrizM =&lt; 0, n_file =&lt; 0, np_file =&lt; 0</t>
-  </si>
-  <si>
-    <t>matrizM = 1, n_file = 1, np_file = 0</t>
-  </si>
-  <si>
-    <t>matrizM = 1, n_file = 1, np_file = 1</t>
-  </si>
-  <si>
-    <t>matrizM = 1 2, n_file = 1, np_file = 1</t>
-  </si>
-  <si>
-    <t>matrizM = , n_file = 1, np_file = 1</t>
-  </si>
-  <si>
-    <t>matrizM = "a", n_file = 1, np_file = 1</t>
-  </si>
-  <si>
-    <t>matrizM = 1, n_file = "a", np_file = 1</t>
-  </si>
-  <si>
-    <t>matrizM = 1, n_file = 1, np_file = "a"</t>
-  </si>
-  <si>
-    <t>matrizM = 0, n_file = 1, np_file = 1</t>
-  </si>
-  <si>
-    <t>matrizM = 1, n_file = 0, np_file = 1</t>
-  </si>
-  <si>
-    <t>verificarSemelhanca</t>
-  </si>
-  <si>
     <t>≠ 2</t>
   </si>
   <si>
-    <t>arrayQ - int, matrizM - int</t>
-  </si>
-  <si>
-    <t>arrayQ ≠ int, matrizM ≠ int</t>
-  </si>
-  <si>
-    <t>arrayQ &gt; 0, matrizM &gt; 0</t>
-  </si>
-  <si>
-    <t>arrayQ =&lt; 0, matrizM =&lt; 0</t>
-  </si>
-  <si>
-    <t>arrayQ = 1, matrizM = 1</t>
-  </si>
-  <si>
-    <t>arrayQ = 1 2, matrizM = 1</t>
-  </si>
-  <si>
-    <t>arrayQ = , matrizM = 1</t>
-  </si>
-  <si>
-    <t>arrayQ = "a", matrizM = 1</t>
-  </si>
-  <si>
-    <t>arrayQ = 1, matrizM = "a"</t>
-  </si>
-  <si>
-    <t>arrayQ = 0, matrizM = 1</t>
-  </si>
-  <si>
-    <t>arrayQ = 1, matrizM = 0</t>
-  </si>
-  <si>
-    <t>listaSim</t>
-  </si>
-  <si>
-    <t>listaRanking - int</t>
-  </si>
-  <si>
-    <t>listaRanking ≠ int</t>
-  </si>
-  <si>
-    <t>listaRanking &gt; 0</t>
-  </si>
-  <si>
-    <t>listaRanking =&lt; 0</t>
-  </si>
-  <si>
-    <t>listaRanking = 1</t>
-  </si>
-  <si>
-    <t>listaRanking = 1 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listaRanking = </t>
-  </si>
-  <si>
-    <t>listaRanking = "a"</t>
-  </si>
-  <si>
-    <t>listaRanking = 0</t>
-  </si>
-  <si>
-    <t>listaSimGrau</t>
-  </si>
-  <si>
-    <t>listaRanking - int, grau - float</t>
-  </si>
-  <si>
-    <t>listaRanking ≠ int, grau ≠ float</t>
-  </si>
-  <si>
-    <t>listaRanking &gt; 0, grau &gt;= 0</t>
-  </si>
-  <si>
-    <t>listaRanking =&lt; 0, grau &lt; 0</t>
-  </si>
-  <si>
-    <t>listaRanking = 1, grau = 0</t>
-  </si>
-  <si>
-    <t>listaRanking = 1 2, grau = 0</t>
-  </si>
-  <si>
-    <t>listaRanking = , grau = 0</t>
-  </si>
-  <si>
-    <t>listaRanking = "a", grau = 0</t>
-  </si>
-  <si>
-    <t>listaRanking = 1, grau = "a"</t>
-  </si>
-  <si>
-    <t>listaRanking = 0, grau = 0</t>
-  </si>
-  <si>
-    <t>listaRanking = 1, grau = -1</t>
-  </si>
-  <si>
-    <t>listaSimMax</t>
-  </si>
-  <si>
-    <t>listaRanking ≠ int, max_ficheiros ≠ int</t>
-  </si>
-  <si>
-    <t>listaRanking - int, max_ficheiros - int</t>
-  </si>
-  <si>
-    <t>listaRanking &gt; 0, max_ficheiros &gt; 0</t>
-  </si>
-  <si>
-    <t>listaRanking =&lt; 0, max_ficheiros =&lt; 0</t>
-  </si>
-  <si>
-    <t>listaRanking = 1, max_ficheiros = 0</t>
-  </si>
-  <si>
-    <t>listaRanking = 1, max_ficheiros = "a"</t>
-  </si>
-  <si>
-    <t>listaRanking = 1, max_ficheiros = 1</t>
-  </si>
-  <si>
-    <t>listaRanking = 1 2, max_ficheiros = 1</t>
-  </si>
-  <si>
-    <t>listaRanking = , max_ficheiros = 1</t>
-  </si>
-  <si>
-    <t>listaRanking = "a", max_ficheiros = 1</t>
-  </si>
-  <si>
-    <t>listaRanking = 0, max_ficheiros = 1</t>
-  </si>
-  <si>
-    <t>n_file - int</t>
-  </si>
-  <si>
-    <t>n_file &gt; 0</t>
-  </si>
-  <si>
-    <t>n_file ≠ int</t>
-  </si>
-  <si>
-    <t>n_file =&lt; 0</t>
-  </si>
-  <si>
-    <t>n_file = 1</t>
-  </si>
-  <si>
-    <t>n_file = 1, 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_file = </t>
-  </si>
-  <si>
-    <t>n_file = "a"</t>
-  </si>
-  <si>
-    <t>n_file = 0</t>
-  </si>
-  <si>
-    <t>removeDigitos</t>
-  </si>
-  <si>
-    <t>removeCaracteresPont</t>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>isFound</t>
+  </si>
+  <si>
+    <t>src = char</t>
+  </si>
+  <si>
+    <t>src ≠ char</t>
+  </si>
+  <si>
+    <t>src = 0</t>
+  </si>
+  <si>
+    <t>src ≠ '\0'</t>
+  </si>
+  <si>
+    <t>src = '\0'</t>
+  </si>
+  <si>
+    <t>src = 'a'</t>
+  </si>
+  <si>
+    <t>src = 'a' 'b'</t>
+  </si>
+  <si>
+    <t>src = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">src = </t>
+  </si>
+  <si>
+    <t>src &gt; 0</t>
+  </si>
+  <si>
+    <t>src = ''</t>
+  </si>
+  <si>
+    <t>tratamentoPalavras</t>
+  </si>
+  <si>
+    <t>numFiles - int</t>
+  </si>
+  <si>
+    <t>numFiles &gt; 0</t>
+  </si>
+  <si>
+    <t>numFiles ≠ int</t>
+  </si>
+  <si>
+    <t>numFiles =&lt; 0</t>
+  </si>
+  <si>
+    <t>numFiles = 1</t>
+  </si>
+  <si>
+    <t>numFiles = 1, 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numFiles = </t>
+  </si>
+  <si>
+    <t>numFiles = "a"</t>
+  </si>
+  <si>
+    <t>numFiles = 0</t>
+  </si>
+  <si>
+    <t>countforQ</t>
+  </si>
+  <si>
+    <t>matrizQ</t>
+  </si>
+  <si>
+    <t>numFiles = int, File[] = array, matrizM = double[][]</t>
+  </si>
+  <si>
+    <t>numFiles ≠ int, File[] ≠ array, matrizM ≠ double[][]</t>
+  </si>
+  <si>
+    <t>numFiles &gt; 0, File[] ≠ null , matrizM ≠ null</t>
+  </si>
+  <si>
+    <t>numFiles &lt;= 0, File[] = null, matrizM = null</t>
+  </si>
+  <si>
+    <t>numFiles = 1, File[] = "file.txt" , matrizM =[2][4]</t>
+  </si>
+  <si>
+    <t>numFiles = , File[] = "file.txt" , matrizM =[2][4]</t>
+  </si>
+  <si>
+    <t>numFiles = 1 2, File[] = "file.txt" , matrizM =[2][4]</t>
+  </si>
+  <si>
+    <t>numFiles = 'a', File[] = "file.txt" , matrizM =[2][4]</t>
+  </si>
+  <si>
+    <t>numFiles = 1, File[] = 1" , matrizM =[2][4]</t>
+  </si>
+  <si>
+    <t>numFiles = 1, File[] = "file.txt" , matrizM ='a'</t>
+  </si>
+  <si>
+    <t>numFiles = 0, File[] = "file.txt" , matrizM =[2][4]</t>
+  </si>
+  <si>
+    <t>numFiles = 1, File[] = null , matrizM =[2][4]</t>
+  </si>
+  <si>
+    <t>numFiles = 1, File[] = "file.txt" , matrizM = null</t>
+  </si>
+  <si>
+    <t>grauSimilariedade</t>
+  </si>
+  <si>
+    <t>numFiles = int, matrizM = double [][],  matrizQ = double[]</t>
+  </si>
+  <si>
+    <t>numFiles ≠ int, matrizM ≠ double [][],  matrizQ ≠ double[]</t>
+  </si>
+  <si>
+    <t>numFiles &gt; 0, matrizM ≠ null,  matrizQ≠ null</t>
+  </si>
+  <si>
+    <t>numFiles &lt;= 0, matrizM = null,  matrizQ = null</t>
+  </si>
+  <si>
+    <t>numFiles = 1, matrizM = [2][4],  matrizQ = [1]</t>
+  </si>
+  <si>
+    <t>numFiles = , matrizM = [2][4],  matrizQ = [1]</t>
+  </si>
+  <si>
+    <t>numFiles = 1 2, matrizM = [2][4],  matrizQ = [1]</t>
+  </si>
+  <si>
+    <t>numFiles = 'a', matrizM = [2][4],  matrizQ = [1]</t>
+  </si>
+  <si>
+    <t>numFiles = 1, matrizM = 'a',  matrizQ = [1]</t>
+  </si>
+  <si>
+    <t>numFiles = 1, matrizM = [2][4],  matrizQ = 'a'</t>
+  </si>
+  <si>
+    <t>numFiles = 0, matrizM = [2][4],  matrizQ = [1]</t>
+  </si>
+  <si>
+    <t>numFiles = 1, matrizM = null,  matrizQ = [1]</t>
+  </si>
+  <si>
+    <t>numFiles = 1, matrizM = [2][4],  matrizQ = null</t>
+  </si>
+  <si>
+    <t>ordenado</t>
+  </si>
+  <si>
+    <t>numFiles= int</t>
+  </si>
+  <si>
+    <t>numFiles≠ int</t>
+  </si>
+  <si>
+    <t>numFiles = 1 2</t>
+  </si>
+  <si>
+    <t>numFiles = int, ordenado = double[]</t>
+  </si>
+  <si>
+    <t>numFiles ≠ int, ordenado ≠ double[]</t>
+  </si>
+  <si>
+    <t>numFiles =&lt; 0, ordenado = null</t>
+  </si>
+  <si>
+    <t>numFiles &gt; 0, ordenado ≠ null</t>
+  </si>
+  <si>
+    <t>numFiles = 1, ordenado = [1]</t>
+  </si>
+  <si>
+    <t>numFiles = 1 2,  ordenado = [1]</t>
+  </si>
+  <si>
+    <t>numFiles = ,  ordenado = [1]</t>
+  </si>
+  <si>
+    <t>numFiles = "a",  ordenado = [1]</t>
+  </si>
+  <si>
+    <t>numFiles = 1,  ordenado = "a"</t>
+  </si>
+  <si>
+    <t>numFiles = 0,  ordenado = [1]</t>
+  </si>
+  <si>
+    <t>numFiles = 1,  ordenado = null</t>
+  </si>
+  <si>
+    <t>grauAcima</t>
+  </si>
+  <si>
+    <t>maximoFicheiros</t>
   </si>
 </sst>
 </file>
@@ -494,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -543,9 +507,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -577,12 +538,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -602,12 +557,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -686,7 +635,52 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1068,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:E15"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,26 +1076,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="53"/>
-      <c r="B1" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="A1" s="48"/>
+      <c r="B1" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="74"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1110,122 +1104,122 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="C3" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
+        <v>12</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
+        <v>15</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
-        <v>84</v>
+      <c r="B8" s="35" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
+      <c r="B9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
+      <c r="B11" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="B12" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1234,105 +1228,105 @@
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
+      <c r="C17" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
+        <v>21</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="38" t="s">
-        <v>84</v>
+      <c r="B22" s="35" t="s">
+        <v>17</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
+      <c r="B23" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
+      <c r="B24" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
+      <c r="B25" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
+      <c r="B26" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="18" t="s">
@@ -1348,42 +1342,42 @@
       <c r="B31" s="3">
         <v>1</v>
       </c>
-      <c r="C31" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
+      <c r="C31" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56"/>
+        <v>24</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="68"/>
+      <c r="E32" s="69"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="59"/>
+        <v>25</v>
+      </c>
+      <c r="C33" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="71"/>
+      <c r="E33" s="72"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
@@ -1394,636 +1388,616 @@
       <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="38" t="s">
-        <v>13</v>
+      <c r="B36" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="38" t="s">
-        <v>14</v>
+      <c r="B37" s="35" t="s">
+        <v>29</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="38" t="s">
-        <v>16</v>
+      <c r="B38" s="35" t="s">
+        <v>30</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="38" t="s">
-        <v>15</v>
+      <c r="B39" s="35" t="s">
+        <v>31</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="13"/>
       <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="38" t="s">
-        <v>17</v>
+      <c r="B40" s="35" t="s">
+        <v>32</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
       <c r="E40" s="17"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="64"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="74"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="3">
-        <v>3</v>
-      </c>
-      <c r="C45" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="62"/>
+        <v>1</v>
+      </c>
+      <c r="C45" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="65"/>
+      <c r="E45" s="66"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="56"/>
+        <v>24</v>
+      </c>
+      <c r="C46" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="68"/>
+      <c r="E46" s="69"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="58"/>
-      <c r="E47" s="59"/>
+        <v>25</v>
+      </c>
+      <c r="C47" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="71"/>
+      <c r="E47" s="72"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="38" t="s">
-        <v>25</v>
+      <c r="B50" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="28"/>
+      <c r="B51" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="55"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="57"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="28"/>
+      <c r="B52" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="55"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="57"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="31"/>
+      <c r="B53" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="49"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="51"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="31"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="31"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="36"/>
+      <c r="B54" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="52"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="54"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="36"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="59"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="36"/>
+      <c r="A58" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
+      <c r="A59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="3">
+        <v>3</v>
+      </c>
+      <c r="C59" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="56"/>
+      <c r="E59" s="57"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
+      <c r="A60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="50"/>
+      <c r="E60" s="51"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="63"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="64"/>
+      <c r="A61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="53"/>
+      <c r="E61" s="54"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="55"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="57"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="55"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="57"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="49"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="51"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="49"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="51"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="49"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="51"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="52"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="54"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="52"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="54"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="52"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="54"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="60"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="24"/>
+      <c r="B75" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="59"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B76" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="32" t="s">
+      <c r="C76" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="3">
-        <v>2</v>
-      </c>
-      <c r="C63" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D63" s="61"/>
-      <c r="E63" s="62"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="B77" s="3">
+        <v>3</v>
+      </c>
+      <c r="C77" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="56"/>
+      <c r="E77" s="57"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" s="55"/>
-      <c r="E64" s="56"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C65" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D65" s="58"/>
-      <c r="E65" s="59"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="28"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="28"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="31"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C72" s="29"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="31"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C73" s="34"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="36"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C74" s="34"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="36"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="25"/>
-      <c r="B77" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="64"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
+      <c r="B78" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" s="50"/>
+      <c r="E78" s="51"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="3">
+        <v>5</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" s="53"/>
+      <c r="E79" s="54"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C80" s="60"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="63"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="55"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="57"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" s="55"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="57"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" s="49"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="51"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86" s="49"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="51"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" s="49"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="51"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C88" s="52"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="54"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89" s="52"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="54"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" s="52"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="54"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="24"/>
+      <c r="B93" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C93" s="58"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="59"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="61"/>
-      <c r="E79" s="62"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C80" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="D80" s="55"/>
-      <c r="E80" s="56"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C81" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="D81" s="58"/>
-      <c r="E81" s="59"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C85" s="26"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="28"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C86" s="26"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="28"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="31"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C88" s="34"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="36"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C89" s="42"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="42"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C90" s="41"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="41"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="25"/>
-      <c r="B91" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="C91" s="63"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="64"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="32" t="s">
+      <c r="C94" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" s="3">
-        <v>2</v>
-      </c>
-      <c r="C93" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D93" s="61"/>
-      <c r="E93" s="62"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C94" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D94" s="55"/>
-      <c r="E94" s="56"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="63"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1</v>
+      </c>
+      <c r="C95" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="56"/>
+      <c r="E95" s="57"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D96" s="50"/>
+      <c r="E96" s="51"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C95" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="D95" s="58"/>
-      <c r="E95" s="59"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="42"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="32" t="s">
+      <c r="B97" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="53"/>
+      <c r="E97" s="54"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C98" s="60"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="60"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C98" s="21"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C99" s="22"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="28"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="63"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C100" s="22"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="28"/>
+      <c r="B100" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C101" s="23"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="31"/>
+      <c r="B101" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" s="55"/>
+      <c r="D101" s="56"/>
+      <c r="E101" s="57"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C102" s="23"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="31"/>
+      <c r="B102" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102" s="55"/>
+      <c r="D102" s="56"/>
+      <c r="E102" s="57"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C103" s="24"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="36"/>
+      <c r="B103" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103" s="49"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="51"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C104" s="24"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="36"/>
+      <c r="B104" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" s="52"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="54"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C105" s="42"/>
-      <c r="D105" s="42"/>
-      <c r="E105" s="42"/>
+      <c r="C105" s="60"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="60"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C106" s="41"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="41"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="61"/>
+      <c r="E106" s="61"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="25"/>
-      <c r="B107" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C107" s="63"/>
-      <c r="D107" s="63"/>
-      <c r="E107" s="64"/>
+      <c r="A107" s="24"/>
+      <c r="B107" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C107" s="58"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="59"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B108" s="37" t="s">
+      <c r="B108" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C108" s="32" t="s">
+      <c r="C108" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="63"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
@@ -2032,131 +2006,254 @@
       <c r="B109" s="3">
         <v>2</v>
       </c>
-      <c r="C109" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D109" s="61"/>
-      <c r="E109" s="62"/>
+      <c r="C109" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="56"/>
+      <c r="E109" s="57"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C110" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="D110" s="55"/>
-      <c r="E110" s="56"/>
+        <v>66</v>
+      </c>
+      <c r="C110" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D110" s="50"/>
+      <c r="E110" s="51"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C111" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="D111" s="58"/>
-      <c r="E111" s="59"/>
+        <v>69</v>
+      </c>
+      <c r="C111" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" s="53"/>
+      <c r="E111" s="54"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C112" s="42"/>
-      <c r="D112" s="42"/>
-      <c r="E112" s="42"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="32" t="s">
+      <c r="C112" s="60"/>
+      <c r="D112" s="60"/>
+      <c r="E112" s="60"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="33"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C114" s="21"/>
+      <c r="C113" s="63"/>
+      <c r="D113" s="63"/>
+      <c r="E113" s="63"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C114" s="20"/>
       <c r="D114" s="7"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="43" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C115" s="21"/>
+      <c r="D115" s="56"/>
+      <c r="E115" s="57"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C116" s="21"/>
+      <c r="D116" s="56"/>
+      <c r="E116" s="57"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C117" s="22"/>
+      <c r="D117" s="50"/>
+      <c r="E117" s="51"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C118" s="22"/>
+      <c r="D118" s="50"/>
+      <c r="E118" s="51"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C119" s="23"/>
+      <c r="D119" s="53"/>
+      <c r="E119" s="54"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C115" s="22"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="28"/>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C116" s="22"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="28"/>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="43" t="s">
+      <c r="C120" s="23"/>
+      <c r="D120" s="53"/>
+      <c r="E120" s="54"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C121" s="60"/>
+      <c r="D121" s="60"/>
+      <c r="E121" s="60"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C122" s="61"/>
+      <c r="D122" s="61"/>
+      <c r="E122" s="61"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="24"/>
+      <c r="B123" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="C117" s="23"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="31"/>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="43" t="s">
+      <c r="C123" s="58"/>
+      <c r="D123" s="58"/>
+      <c r="E123" s="59"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" s="63"/>
+      <c r="E124" s="63"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="3">
+        <v>2</v>
+      </c>
+      <c r="C125" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="56"/>
+      <c r="E125" s="57"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C126" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D126" s="50"/>
+      <c r="E126" s="51"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C127" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" s="53"/>
+      <c r="E127" s="54"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C128" s="60"/>
+      <c r="D128" s="60"/>
+      <c r="E128" s="60"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="63"/>
+      <c r="D129" s="63"/>
+      <c r="E129" s="63"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C130" s="20"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C131" s="21"/>
+      <c r="D131" s="56"/>
+      <c r="E131" s="57"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C132" s="21"/>
+      <c r="D132" s="56"/>
+      <c r="E132" s="57"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C133" s="22"/>
+      <c r="D133" s="50"/>
+      <c r="E133" s="51"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C118" s="23"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="31"/>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C119" s="24"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="36"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C120" s="24"/>
-      <c r="D120" s="35"/>
-      <c r="E120" s="36"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="50"/>
+      <c r="E134" s="51"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C135" s="23"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="54"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C136" s="23"/>
+      <c r="D136" s="53"/>
+      <c r="E136" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C111:E111"/>
+  <mergeCells count="28">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
     <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="C42:E42"/>
@@ -2173,11 +2270,13 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C48:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabelas equivalência e casos de teste.xlsx
+++ b/Tabelas equivalência e casos de teste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunof\Desktop\Universidade\PAW\ESII--TP2.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Documents\GitHub\ESII--TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B66C05-D104-423F-8A9F-BD190FF711B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101E0DF3-4A24-4000-92F2-8D4C275665A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="82">
   <si>
     <t>Critério</t>
   </si>
@@ -267,6 +267,15 @@
   </si>
   <si>
     <t>maximoFicheiros</t>
+  </si>
+  <si>
+    <t>numFiles &gt; 0, ficheiros ≠ null</t>
+  </si>
+  <si>
+    <t>numFiles = int</t>
+  </si>
+  <si>
+    <t>numFiles =</t>
   </si>
 </sst>
 </file>
@@ -635,6 +644,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -662,25 +680,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1064,92 +1073,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="73.140625" customWidth="1"/>
-    <col min="3" max="3" width="59.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="73.109375" customWidth="1"/>
+    <col min="3" max="3" width="59.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="48"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="71"/>
+      <c r="E4" s="72"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="76" t="s">
+      <c r="D5" s="74"/>
+      <c r="E5" s="75"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="35" t="s">
         <v>17</v>
       </c>
@@ -1157,7 +1166,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="35" t="s">
         <v>18</v>
       </c>
@@ -1165,7 +1174,7 @@
       <c r="D9" s="26"/>
       <c r="E9" s="27"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="35" t="s">
         <v>20</v>
       </c>
@@ -1173,7 +1182,7 @@
       <c r="D10" s="26"/>
       <c r="E10" s="27"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="35" t="s">
         <v>19</v>
       </c>
@@ -1181,7 +1190,7 @@
       <c r="D11" s="29"/>
       <c r="E11" s="30"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="35" t="s">
         <v>16</v>
       </c>
@@ -1189,91 +1198,91 @@
       <c r="D12" s="32"/>
       <c r="E12" s="33"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="71"/>
+      <c r="E18" s="72"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="76" t="s">
+      <c r="D19" s="74"/>
+      <c r="E19" s="75"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="35" t="s">
         <v>17</v>
       </c>
@@ -1281,7 +1290,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="35" t="s">
         <v>18</v>
       </c>
@@ -1289,7 +1298,7 @@
       <c r="D23" s="46"/>
       <c r="E23" s="47"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" s="35" t="s">
         <v>20</v>
       </c>
@@ -1297,7 +1306,7 @@
       <c r="D24" s="46"/>
       <c r="E24" s="47"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
         <v>19</v>
       </c>
@@ -1305,7 +1314,7 @@
       <c r="D25" s="40"/>
       <c r="E25" s="41"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" s="35" t="s">
         <v>22</v>
       </c>
@@ -1313,16 +1322,16 @@
       <c r="D26" s="43"/>
       <c r="E26" s="44"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="74"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1335,51 +1344,51 @@
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="69"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="71"/>
+      <c r="E32" s="72"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="72"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="74"/>
+      <c r="E33" s="75"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
         <v>6</v>
       </c>
@@ -1387,7 +1396,7 @@
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" s="35" t="s">
         <v>28</v>
       </c>
@@ -1395,7 +1404,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" s="35" t="s">
         <v>29</v>
       </c>
@@ -1403,7 +1412,7 @@
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" s="35" t="s">
         <v>30</v>
       </c>
@@ -1411,7 +1420,7 @@
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" s="35" t="s">
         <v>31</v>
       </c>
@@ -1419,7 +1428,7 @@
       <c r="D39" s="13"/>
       <c r="E39" s="14"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" s="35" t="s">
         <v>32</v>
       </c>
@@ -1427,26 +1436,26 @@
       <c r="D40" s="16"/>
       <c r="E40" s="17"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
-      <c r="B43" s="73" t="s">
+      <c r="B43" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="74"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="66"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>0</v>
       </c>
@@ -1459,51 +1468,51 @@
       <c r="D44" s="63"/>
       <c r="E44" s="63"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="65"/>
-      <c r="E45" s="66"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="68"/>
+      <c r="E45" s="69"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="67" t="s">
+      <c r="C46" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="68"/>
-      <c r="E46" s="69"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="71"/>
+      <c r="E46" s="72"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C47" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="71"/>
-      <c r="E47" s="72"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="74"/>
+      <c r="E47" s="75"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B49" s="62" t="s">
         <v>6</v>
       </c>
@@ -1511,7 +1520,7 @@
       <c r="D49" s="63"/>
       <c r="E49" s="63"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B50" s="35" t="s">
         <v>28</v>
       </c>
@@ -1519,7 +1528,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B51" s="35" t="s">
         <v>29</v>
       </c>
@@ -1527,7 +1536,7 @@
       <c r="D51" s="56"/>
       <c r="E51" s="57"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B52" s="35" t="s">
         <v>30</v>
       </c>
@@ -1535,7 +1544,7 @@
       <c r="D52" s="56"/>
       <c r="E52" s="57"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B53" s="35" t="s">
         <v>31</v>
       </c>
@@ -1543,7 +1552,7 @@
       <c r="D53" s="50"/>
       <c r="E53" s="51"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B54" s="35" t="s">
         <v>32</v>
       </c>
@@ -1551,7 +1560,7 @@
       <c r="D54" s="53"/>
       <c r="E54" s="54"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
       <c r="B57" s="58" t="s">
         <v>34</v>
@@ -1560,7 +1569,7 @@
       <c r="D57" s="58"/>
       <c r="E57" s="59"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>0</v>
       </c>
@@ -1573,7 +1582,7 @@
       <c r="D58" s="37"/>
       <c r="E58" s="37"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
@@ -1586,7 +1595,7 @@
       <c r="D59" s="56"/>
       <c r="E59" s="57"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>4</v>
       </c>
@@ -1599,7 +1608,7 @@
       <c r="D60" s="50"/>
       <c r="E60" s="51"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>5</v>
       </c>
@@ -1612,12 +1621,12 @@
       <c r="D61" s="53"/>
       <c r="E61" s="54"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C62" s="60"/>
       <c r="D62" s="60"/>
       <c r="E62" s="60"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B63" s="62" t="s">
         <v>6</v>
       </c>
@@ -1625,7 +1634,7 @@
       <c r="D63" s="63"/>
       <c r="E63" s="63"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B64" s="35" t="s">
         <v>39</v>
       </c>
@@ -1633,7 +1642,7 @@
       <c r="D64" s="7"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B65" s="35" t="s">
         <v>40</v>
       </c>
@@ -1641,7 +1650,7 @@
       <c r="D65" s="56"/>
       <c r="E65" s="57"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B66" s="35" t="s">
         <v>41</v>
       </c>
@@ -1649,7 +1658,7 @@
       <c r="D66" s="56"/>
       <c r="E66" s="57"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B67" s="35" t="s">
         <v>42</v>
       </c>
@@ -1657,7 +1666,7 @@
       <c r="D67" s="50"/>
       <c r="E67" s="51"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B68" s="35" t="s">
         <v>43</v>
       </c>
@@ -1665,7 +1674,7 @@
       <c r="D68" s="50"/>
       <c r="E68" s="51"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B69" s="35" t="s">
         <v>44</v>
       </c>
@@ -1673,7 +1682,7 @@
       <c r="D69" s="50"/>
       <c r="E69" s="51"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B70" s="35" t="s">
         <v>45</v>
       </c>
@@ -1681,7 +1690,7 @@
       <c r="D70" s="53"/>
       <c r="E70" s="54"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B71" s="35" t="s">
         <v>46</v>
       </c>
@@ -1689,7 +1698,7 @@
       <c r="D71" s="53"/>
       <c r="E71" s="54"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B72" s="35" t="s">
         <v>47</v>
       </c>
@@ -1697,17 +1706,17 @@
       <c r="D72" s="53"/>
       <c r="E72" s="54"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C73" s="60"/>
       <c r="D73" s="60"/>
       <c r="E73" s="60"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C74" s="61"/>
       <c r="D74" s="61"/>
       <c r="E74" s="61"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="24"/>
       <c r="B75" s="58" t="s">
         <v>48</v>
@@ -1716,7 +1725,7 @@
       <c r="D75" s="58"/>
       <c r="E75" s="59"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>0</v>
       </c>
@@ -1729,7 +1738,7 @@
       <c r="D76" s="63"/>
       <c r="E76" s="63"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
@@ -1742,7 +1751,7 @@
       <c r="D77" s="56"/>
       <c r="E77" s="57"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>4</v>
       </c>
@@ -1755,7 +1764,7 @@
       <c r="D78" s="50"/>
       <c r="E78" s="51"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>5</v>
       </c>
@@ -1768,12 +1777,12 @@
       <c r="D79" s="53"/>
       <c r="E79" s="54"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
       <c r="E80" s="60"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B81" s="62" t="s">
         <v>6</v>
       </c>
@@ -1781,7 +1790,7 @@
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B82" s="35" t="s">
         <v>53</v>
       </c>
@@ -1789,7 +1798,7 @@
       <c r="D82" s="7"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B83" s="35" t="s">
         <v>54</v>
       </c>
@@ -1797,7 +1806,7 @@
       <c r="D83" s="56"/>
       <c r="E83" s="57"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B84" s="35" t="s">
         <v>55</v>
       </c>
@@ -1805,7 +1814,7 @@
       <c r="D84" s="56"/>
       <c r="E84" s="57"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B85" s="35" t="s">
         <v>56</v>
       </c>
@@ -1813,7 +1822,7 @@
       <c r="D85" s="50"/>
       <c r="E85" s="51"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B86" s="35" t="s">
         <v>57</v>
       </c>
@@ -1821,7 +1830,7 @@
       <c r="D86" s="50"/>
       <c r="E86" s="51"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B87" s="35" t="s">
         <v>58</v>
       </c>
@@ -1829,7 +1838,7 @@
       <c r="D87" s="50"/>
       <c r="E87" s="51"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B88" s="35" t="s">
         <v>59</v>
       </c>
@@ -1837,7 +1846,7 @@
       <c r="D88" s="53"/>
       <c r="E88" s="54"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B89" s="35" t="s">
         <v>60</v>
       </c>
@@ -1845,7 +1854,7 @@
       <c r="D89" s="53"/>
       <c r="E89" s="54"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B90" s="35" t="s">
         <v>61</v>
       </c>
@@ -1853,7 +1862,7 @@
       <c r="D90" s="53"/>
       <c r="E90" s="54"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="24"/>
       <c r="B93" s="58" t="s">
         <v>62</v>
@@ -1862,7 +1871,7 @@
       <c r="D93" s="58"/>
       <c r="E93" s="59"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +1884,7 @@
       <c r="D94" s="63"/>
       <c r="E94" s="63"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -1888,7 +1897,7 @@
       <c r="D95" s="56"/>
       <c r="E95" s="57"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>4</v>
       </c>
@@ -1901,7 +1910,7 @@
       <c r="D96" s="50"/>
       <c r="E96" s="51"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
@@ -1914,12 +1923,12 @@
       <c r="D97" s="53"/>
       <c r="E97" s="54"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C98" s="60"/>
       <c r="D98" s="60"/>
       <c r="E98" s="60"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B99" s="62" t="s">
         <v>6</v>
       </c>
@@ -1927,7 +1936,7 @@
       <c r="D99" s="63"/>
       <c r="E99" s="63"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B100" s="35" t="s">
         <v>28</v>
       </c>
@@ -1935,7 +1944,7 @@
       <c r="D100" s="7"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B101" s="35" t="s">
         <v>65</v>
       </c>
@@ -1943,7 +1952,7 @@
       <c r="D101" s="56"/>
       <c r="E101" s="57"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B102" s="35" t="s">
         <v>30</v>
       </c>
@@ -1951,7 +1960,7 @@
       <c r="D102" s="56"/>
       <c r="E102" s="57"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B103" s="35" t="s">
         <v>31</v>
       </c>
@@ -1959,7 +1968,7 @@
       <c r="D103" s="50"/>
       <c r="E103" s="51"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B104" s="35" t="s">
         <v>32</v>
       </c>
@@ -1967,17 +1976,17 @@
       <c r="D104" s="53"/>
       <c r="E104" s="54"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C105" s="60"/>
       <c r="D105" s="60"/>
       <c r="E105" s="60"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C106" s="61"/>
       <c r="D106" s="61"/>
       <c r="E106" s="61"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="24"/>
       <c r="B107" s="58" t="s">
         <v>77</v>
@@ -1986,7 +1995,7 @@
       <c r="D107" s="58"/>
       <c r="E107" s="59"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>0</v>
       </c>
@@ -1999,51 +2008,51 @@
       <c r="D108" s="63"/>
       <c r="E108" s="63"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B109" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C109" s="55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D109" s="56"/>
       <c r="E109" s="57"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C110" s="49" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D110" s="50"/>
       <c r="E110" s="51"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C111" s="52" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="D111" s="53"/>
       <c r="E111" s="54"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C112" s="60"/>
       <c r="D112" s="60"/>
       <c r="E112" s="60"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B113" s="62" t="s">
         <v>6</v>
       </c>
@@ -2051,73 +2060,73 @@
       <c r="D113" s="63"/>
       <c r="E113" s="63"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B114" s="38" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C114" s="20"/>
       <c r="D114" s="7"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B115" s="38" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C115" s="21"/>
       <c r="D115" s="56"/>
       <c r="E115" s="57"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B116" s="38" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C116" s="21"/>
       <c r="D116" s="56"/>
       <c r="E116" s="57"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B117" s="38" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="C117" s="22"/>
       <c r="D117" s="50"/>
       <c r="E117" s="51"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B118" s="38" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="C118" s="22"/>
       <c r="D118" s="50"/>
       <c r="E118" s="51"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B119" s="38" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="C119" s="23"/>
       <c r="D119" s="53"/>
       <c r="E119" s="54"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B120" s="38" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="C120" s="23"/>
       <c r="D120" s="53"/>
       <c r="E120" s="54"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C121" s="60"/>
       <c r="D121" s="60"/>
       <c r="E121" s="60"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C122" s="61"/>
       <c r="D122" s="61"/>
       <c r="E122" s="61"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="24"/>
       <c r="B123" s="58" t="s">
         <v>78</v>
@@ -2126,7 +2135,7 @@
       <c r="D123" s="58"/>
       <c r="E123" s="59"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>0</v>
       </c>
@@ -2139,7 +2148,7 @@
       <c r="D124" s="63"/>
       <c r="E124" s="63"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>3</v>
       </c>
@@ -2152,7 +2161,7 @@
       <c r="D125" s="56"/>
       <c r="E125" s="57"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>4</v>
       </c>
@@ -2165,7 +2174,7 @@
       <c r="D126" s="50"/>
       <c r="E126" s="51"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>5</v>
       </c>
@@ -2178,12 +2187,12 @@
       <c r="D127" s="53"/>
       <c r="E127" s="54"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C128" s="60"/>
       <c r="D128" s="60"/>
       <c r="E128" s="60"/>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B129" s="62" t="s">
         <v>6</v>
       </c>
@@ -2191,7 +2200,7 @@
       <c r="D129" s="63"/>
       <c r="E129" s="63"/>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130" s="38" t="s">
         <v>70</v>
       </c>
@@ -2199,7 +2208,7 @@
       <c r="D130" s="7"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B131" s="38" t="s">
         <v>71</v>
       </c>
@@ -2207,7 +2216,7 @@
       <c r="D131" s="56"/>
       <c r="E131" s="57"/>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B132" s="38" t="s">
         <v>72</v>
       </c>
@@ -2215,7 +2224,7 @@
       <c r="D132" s="56"/>
       <c r="E132" s="57"/>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" s="38" t="s">
         <v>73</v>
       </c>
@@ -2223,7 +2232,7 @@
       <c r="D133" s="50"/>
       <c r="E133" s="51"/>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134" s="38" t="s">
         <v>74</v>
       </c>
@@ -2231,7 +2240,7 @@
       <c r="D134" s="50"/>
       <c r="E134" s="51"/>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B135" s="38" t="s">
         <v>75</v>
       </c>
@@ -2239,7 +2248,7 @@
       <c r="D135" s="53"/>
       <c r="E135" s="54"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B136" s="38" t="s">
         <v>76</v>
       </c>
@@ -2249,11 +2258,7 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="C42:E42"/>
@@ -2270,13 +2275,17 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C48:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabelas equivalência e casos de teste.xlsx
+++ b/Tabelas equivalência e casos de teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Documents\GitHub\ESII--TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101E0DF3-4A24-4000-92F2-8D4C275665A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9549000F-432B-4404-A90F-F01AA670D52E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="81">
   <si>
     <t>Critério</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>tratamentoPalavras</t>
-  </si>
-  <si>
-    <t>numFiles - int</t>
   </si>
   <si>
     <t>numFiles &gt; 0</t>
@@ -644,52 +641,52 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1073,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1100,11 +1097,11 @@
       <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1113,11 +1110,11 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1126,11 +1123,11 @@
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1139,24 +1136,24 @@
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="35" t="s">
@@ -1199,14 +1196,14 @@
       <c r="E12" s="33"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
@@ -1224,11 +1221,11 @@
       <c r="B16" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -1237,11 +1234,11 @@
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -1250,11 +1247,11 @@
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -1263,24 +1260,24 @@
       <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="76"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="35" t="s">
@@ -1351,42 +1348,42 @@
       <c r="B31" s="3">
         <v>1</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="70"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="72"/>
+        <v>79</v>
+      </c>
+      <c r="C32" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="74"/>
-      <c r="E33" s="75"/>
+        <v>24</v>
+      </c>
+      <c r="C33" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
@@ -1398,7 +1395,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
@@ -1406,7 +1403,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -1414,7 +1411,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -1422,7 +1419,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="13"/>
@@ -1430,26 +1427,26 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
       <c r="E40" s="17"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43" s="65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C43" s="65"/>
       <c r="D43" s="65"/>
@@ -1475,42 +1472,42 @@
       <c r="B45" s="3">
         <v>1</v>
       </c>
-      <c r="C45" s="67" t="s">
+      <c r="C45" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="68"/>
-      <c r="E45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="70"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="71"/>
-      <c r="E46" s="72"/>
+        <v>79</v>
+      </c>
+      <c r="C46" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="72"/>
+      <c r="E46" s="73"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="75"/>
+        <v>24</v>
+      </c>
+      <c r="C47" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="75"/>
+      <c r="E47" s="76"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B49" s="62" t="s">
@@ -1522,7 +1519,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B50" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
@@ -1530,7 +1527,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B51" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C51" s="55"/>
       <c r="D51" s="56"/>
@@ -1538,7 +1535,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B52" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" s="55"/>
       <c r="D52" s="56"/>
@@ -1546,7 +1543,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B53" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53" s="49"/>
       <c r="D53" s="50"/>
@@ -1554,7 +1551,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B54" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54" s="52"/>
       <c r="D54" s="53"/>
@@ -1563,7 +1560,7 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
       <c r="B57" s="58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C57" s="58"/>
       <c r="D57" s="58"/>
@@ -1600,10 +1597,10 @@
         <v>4</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="49" t="s">
         <v>35</v>
-      </c>
-      <c r="C60" s="49" t="s">
-        <v>36</v>
       </c>
       <c r="D60" s="50"/>
       <c r="E60" s="51"/>
@@ -1613,10 +1610,10 @@
         <v>5</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="52" t="s">
         <v>37</v>
-      </c>
-      <c r="C61" s="52" t="s">
-        <v>38</v>
       </c>
       <c r="D61" s="53"/>
       <c r="E61" s="54"/>
@@ -1636,7 +1633,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B64" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
@@ -1644,7 +1641,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B65" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C65" s="55"/>
       <c r="D65" s="56"/>
@@ -1652,7 +1649,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B66" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C66" s="55"/>
       <c r="D66" s="56"/>
@@ -1660,7 +1657,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B67" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C67" s="49"/>
       <c r="D67" s="50"/>
@@ -1668,7 +1665,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B68" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C68" s="49"/>
       <c r="D68" s="50"/>
@@ -1676,7 +1673,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B69" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C69" s="49"/>
       <c r="D69" s="50"/>
@@ -1684,7 +1681,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B70" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C70" s="52"/>
       <c r="D70" s="53"/>
@@ -1692,7 +1689,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B71" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C71" s="52"/>
       <c r="D71" s="53"/>
@@ -1700,7 +1697,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B72" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C72" s="52"/>
       <c r="D72" s="53"/>
@@ -1719,7 +1716,7 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="24"/>
       <c r="B75" s="58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C75" s="58"/>
       <c r="D75" s="58"/>
@@ -1756,10 +1753,10 @@
         <v>4</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="49" t="s">
         <v>49</v>
-      </c>
-      <c r="C78" s="49" t="s">
-        <v>50</v>
       </c>
       <c r="D78" s="50"/>
       <c r="E78" s="51"/>
@@ -1769,10 +1766,10 @@
         <v>5</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" s="52" t="s">
         <v>51</v>
-      </c>
-      <c r="C79" s="52" t="s">
-        <v>52</v>
       </c>
       <c r="D79" s="53"/>
       <c r="E79" s="54"/>
@@ -1792,7 +1789,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B82" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="7"/>
@@ -1800,7 +1797,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B83" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C83" s="55"/>
       <c r="D83" s="56"/>
@@ -1808,7 +1805,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B84" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C84" s="55"/>
       <c r="D84" s="56"/>
@@ -1816,7 +1813,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B85" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C85" s="49"/>
       <c r="D85" s="50"/>
@@ -1824,7 +1821,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B86" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C86" s="49"/>
       <c r="D86" s="50"/>
@@ -1832,7 +1829,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B87" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C87" s="49"/>
       <c r="D87" s="50"/>
@@ -1840,7 +1837,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B88" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C88" s="52"/>
       <c r="D88" s="53"/>
@@ -1848,7 +1845,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B89" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C89" s="52"/>
       <c r="D89" s="53"/>
@@ -1856,7 +1853,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B90" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C90" s="52"/>
       <c r="D90" s="53"/>
@@ -1865,7 +1862,7 @@
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="24"/>
       <c r="B93" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C93" s="58"/>
       <c r="D93" s="58"/>
@@ -1902,10 +1899,10 @@
         <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" s="49" t="s">
         <v>63</v>
-      </c>
-      <c r="C96" s="49" t="s">
-        <v>64</v>
       </c>
       <c r="D96" s="50"/>
       <c r="E96" s="51"/>
@@ -1915,10 +1912,10 @@
         <v>5</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D97" s="53"/>
       <c r="E97" s="54"/>
@@ -1938,7 +1935,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B100" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="7"/>
@@ -1946,7 +1943,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B101" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C101" s="55"/>
       <c r="D101" s="56"/>
@@ -1954,7 +1951,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B102" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C102" s="55"/>
       <c r="D102" s="56"/>
@@ -1962,7 +1959,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B103" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C103" s="49"/>
       <c r="D103" s="50"/>
@@ -1970,7 +1967,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B104" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C104" s="52"/>
       <c r="D104" s="53"/>
@@ -1989,7 +1986,7 @@
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="24"/>
       <c r="B107" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C107" s="58"/>
       <c r="D107" s="58"/>
@@ -2026,10 +2023,10 @@
         <v>4</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C110" s="49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D110" s="50"/>
       <c r="E110" s="51"/>
@@ -2039,10 +2036,10 @@
         <v>5</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C111" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D111" s="53"/>
       <c r="E111" s="54"/>
@@ -2062,7 +2059,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B114" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C114" s="20"/>
       <c r="D114" s="7"/>
@@ -2070,7 +2067,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B115" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C115" s="21"/>
       <c r="D115" s="56"/>
@@ -2078,7 +2075,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B116" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C116" s="21"/>
       <c r="D116" s="56"/>
@@ -2086,7 +2083,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B117" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C117" s="22"/>
       <c r="D117" s="50"/>
@@ -2094,7 +2091,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B118" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C118" s="22"/>
       <c r="D118" s="50"/>
@@ -2102,7 +2099,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B119" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C119" s="23"/>
       <c r="D119" s="53"/>
@@ -2110,7 +2107,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B120" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C120" s="23"/>
       <c r="D120" s="53"/>
@@ -2129,7 +2126,7 @@
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="24"/>
       <c r="B123" s="58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C123" s="58"/>
       <c r="D123" s="58"/>
@@ -2166,10 +2163,10 @@
         <v>4</v>
       </c>
       <c r="B126" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C126" s="49" t="s">
         <v>66</v>
-      </c>
-      <c r="C126" s="49" t="s">
-        <v>67</v>
       </c>
       <c r="D126" s="50"/>
       <c r="E126" s="51"/>
@@ -2179,10 +2176,10 @@
         <v>5</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C127" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D127" s="53"/>
       <c r="E127" s="54"/>
@@ -2202,7 +2199,7 @@
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C130" s="20"/>
       <c r="D130" s="7"/>
@@ -2210,7 +2207,7 @@
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B131" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C131" s="21"/>
       <c r="D131" s="56"/>
@@ -2218,7 +2215,7 @@
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B132" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C132" s="21"/>
       <c r="D132" s="56"/>
@@ -2226,7 +2223,7 @@
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C133" s="22"/>
       <c r="D133" s="50"/>
@@ -2234,7 +2231,7 @@
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C134" s="22"/>
       <c r="D134" s="50"/>
@@ -2242,7 +2239,7 @@
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B135" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C135" s="23"/>
       <c r="D135" s="53"/>
@@ -2250,7 +2247,7 @@
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B136" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C136" s="23"/>
       <c r="D136" s="53"/>
@@ -2258,6 +2255,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C41:E41"/>
@@ -2274,18 +2283,6 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabelas equivalência e casos de teste.xlsx
+++ b/Tabelas equivalência e casos de teste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Documents\GitHub\ESII--TP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga\Documents\GitHub\ESII--TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9549000F-432B-4404-A90F-F01AA670D52E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612CE3EA-171D-4748-AD83-CD14E18F84C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,52 +641,52 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -772,7 +772,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1070,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1083,12 +1083,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="48"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1097,11 +1097,11 @@
       <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1110,11 +1110,11 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1123,11 +1123,11 @@
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1136,24 +1136,24 @@
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="76"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="35" t="s">
@@ -1196,23 +1196,23 @@
       <c r="E12" s="33"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
@@ -1221,11 +1221,11 @@
       <c r="B16" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -1234,11 +1234,11 @@
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -1247,11 +1247,11 @@
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="75"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -1260,24 +1260,24 @@
       <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="76"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="35" t="s">
@@ -1321,12 +1321,12 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="77"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
@@ -1348,11 +1348,11 @@
       <c r="B31" s="3">
         <v>1</v>
       </c>
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="70"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="72"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -1361,11 +1361,11 @@
       <c r="B32" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="72"/>
-      <c r="E32" s="73"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
@@ -1374,16 +1374,16 @@
       <c r="B33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="76"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="66"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
@@ -1434,23 +1434,23 @@
       <c r="E40" s="17"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="66"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="77"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
@@ -1472,11 +1472,11 @@
       <c r="B45" s="3">
         <v>1</v>
       </c>
-      <c r="C45" s="68" t="s">
+      <c r="C45" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="69"/>
-      <c r="E45" s="70"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="72"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
@@ -1485,11 +1485,11 @@
       <c r="B46" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="71" t="s">
+      <c r="C46" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="72"/>
-      <c r="E46" s="73"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="75"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
@@ -1498,16 +1498,16 @@
       <c r="B47" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="75"/>
-      <c r="E47" s="76"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="66"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B49" s="62" t="s">
@@ -2255,18 +2255,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C41:E41"/>
@@ -2283,6 +2271,18 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabelas equivalência e casos de teste.xlsx
+++ b/Tabelas equivalência e casos de teste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga\Documents\GitHub\ESII--TP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eu\Documents\GitHub\ESII--TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612CE3EA-171D-4748-AD83-CD14E18F84C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46793A83-CD8D-4F79-B3A9-32150643853A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17260" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="85">
   <si>
     <t>Critério</t>
   </si>
@@ -98,9 +98,6 @@
     <t>src &gt; 0</t>
   </si>
   <si>
-    <t>src = ''</t>
-  </si>
-  <si>
     <t>tratamentoPalavras</t>
   </si>
   <si>
@@ -273,6 +270,21 @@
   </si>
   <si>
     <t>numFiles =</t>
+  </si>
+  <si>
+    <t>src = String</t>
+  </si>
+  <si>
+    <t>src ≠ String</t>
+  </si>
+  <si>
+    <t>src = "a"</t>
+  </si>
+  <si>
+    <t>src = "a""b"</t>
+  </si>
+  <si>
+    <t>src = ''"</t>
   </si>
 </sst>
 </file>
@@ -641,6 +653,36 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -650,43 +692,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -772,7 +784,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1070,92 +1082,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="73.109375" customWidth="1"/>
-    <col min="3" max="3" width="59.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="2" max="2" width="73.08984375" customWidth="1"/>
+    <col min="3" max="3" width="59.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="48"/>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="68" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="35" t="s">
         <v>17</v>
       </c>
@@ -1163,7 +1175,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="35" t="s">
         <v>18</v>
       </c>
@@ -1171,7 +1183,7 @@
       <c r="D9" s="26"/>
       <c r="E9" s="27"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="35" t="s">
         <v>20</v>
       </c>
@@ -1179,7 +1191,7 @@
       <c r="D10" s="26"/>
       <c r="E10" s="27"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="35" t="s">
         <v>19</v>
       </c>
@@ -1187,7 +1199,7 @@
       <c r="D11" s="29"/>
       <c r="E11" s="30"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="35" t="s">
         <v>16</v>
       </c>
@@ -1195,107 +1207,107 @@
       <c r="D12" s="32"/>
       <c r="E12" s="33"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="24"/>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="68" t="s">
+      <c r="D19" s="75"/>
+      <c r="E19" s="76"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B22" s="35" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" s="35" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="C23" s="45"/>
       <c r="D23" s="46"/>
       <c r="E23" s="47"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B24" s="35" t="s">
         <v>20</v>
       </c>
@@ -1303,7 +1315,7 @@
       <c r="D24" s="46"/>
       <c r="E24" s="47"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B25" s="35" t="s">
         <v>19</v>
       </c>
@@ -1311,24 +1323,24 @@
       <c r="D25" s="40"/>
       <c r="E25" s="41"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B26" s="35" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="43"/>
       <c r="E26" s="44"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="24"/>
-      <c r="B29" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1341,51 +1353,51 @@
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="69"/>
+      <c r="E31" s="70"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="74"/>
-      <c r="E32" s="75"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="C32" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="C33" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B35" s="18" t="s">
         <v>6</v>
       </c>
@@ -1393,66 +1405,66 @@
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B36" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B37" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B38" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B39" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="13"/>
       <c r="E39" s="14"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B40" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
       <c r="E40" s="17"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="24"/>
-      <c r="B43" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="77"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="66"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>0</v>
       </c>
@@ -1465,51 +1477,51 @@
       <c r="D44" s="63"/>
       <c r="E44" s="63"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
       </c>
-      <c r="C45" s="70" t="s">
+      <c r="C45" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="71"/>
-      <c r="E45" s="72"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D45" s="69"/>
+      <c r="E45" s="70"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="74"/>
-      <c r="E46" s="75"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="C46" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="72"/>
+      <c r="E46" s="73"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="65"/>
-      <c r="E47" s="66"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="C47" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="75"/>
+      <c r="E47" s="76"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B49" s="62" t="s">
         <v>6</v>
       </c>
@@ -1517,56 +1529,56 @@
       <c r="D49" s="63"/>
       <c r="E49" s="63"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B50" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B51" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" s="55"/>
       <c r="D51" s="56"/>
       <c r="E51" s="57"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B52" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" s="55"/>
       <c r="D52" s="56"/>
       <c r="E52" s="57"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B53" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" s="49"/>
       <c r="D53" s="50"/>
       <c r="E53" s="51"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B54" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" s="52"/>
       <c r="D54" s="53"/>
       <c r="E54" s="54"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="24"/>
       <c r="B57" s="58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57" s="58"/>
       <c r="D57" s="58"/>
       <c r="E57" s="59"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>0</v>
       </c>
@@ -1579,7 +1591,7 @@
       <c r="D58" s="37"/>
       <c r="E58" s="37"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
@@ -1592,38 +1604,38 @@
       <c r="D59" s="56"/>
       <c r="E59" s="57"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="49" t="s">
         <v>34</v>
-      </c>
-      <c r="C60" s="49" t="s">
-        <v>35</v>
       </c>
       <c r="D60" s="50"/>
       <c r="E60" s="51"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="52" t="s">
         <v>36</v>
-      </c>
-      <c r="C61" s="52" t="s">
-        <v>37</v>
       </c>
       <c r="D61" s="53"/>
       <c r="E61" s="54"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C62" s="60"/>
       <c r="D62" s="60"/>
       <c r="E62" s="60"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B63" s="62" t="s">
         <v>6</v>
       </c>
@@ -1631,98 +1643,98 @@
       <c r="D63" s="63"/>
       <c r="E63" s="63"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B64" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B65" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C65" s="55"/>
       <c r="D65" s="56"/>
       <c r="E65" s="57"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B66" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C66" s="55"/>
       <c r="D66" s="56"/>
       <c r="E66" s="57"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B67" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C67" s="49"/>
       <c r="D67" s="50"/>
       <c r="E67" s="51"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B68" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C68" s="49"/>
       <c r="D68" s="50"/>
       <c r="E68" s="51"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B69" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C69" s="49"/>
       <c r="D69" s="50"/>
       <c r="E69" s="51"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B70" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C70" s="52"/>
       <c r="D70" s="53"/>
       <c r="E70" s="54"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B71" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C71" s="52"/>
       <c r="D71" s="53"/>
       <c r="E71" s="54"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B72" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C72" s="52"/>
       <c r="D72" s="53"/>
       <c r="E72" s="54"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C73" s="60"/>
       <c r="D73" s="60"/>
       <c r="E73" s="60"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C74" s="61"/>
       <c r="D74" s="61"/>
       <c r="E74" s="61"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="24"/>
       <c r="B75" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C75" s="58"/>
       <c r="D75" s="58"/>
       <c r="E75" s="59"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>0</v>
       </c>
@@ -1735,7 +1747,7 @@
       <c r="D76" s="63"/>
       <c r="E76" s="63"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
@@ -1748,38 +1760,38 @@
       <c r="D77" s="56"/>
       <c r="E77" s="57"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="49" t="s">
         <v>48</v>
-      </c>
-      <c r="C78" s="49" t="s">
-        <v>49</v>
       </c>
       <c r="D78" s="50"/>
       <c r="E78" s="51"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="52" t="s">
         <v>50</v>
-      </c>
-      <c r="C79" s="52" t="s">
-        <v>51</v>
       </c>
       <c r="D79" s="53"/>
       <c r="E79" s="54"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
       <c r="E80" s="60"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B81" s="62" t="s">
         <v>6</v>
       </c>
@@ -1787,88 +1799,88 @@
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B82" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="7"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B83" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C83" s="55"/>
       <c r="D83" s="56"/>
       <c r="E83" s="57"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B84" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C84" s="55"/>
       <c r="D84" s="56"/>
       <c r="E84" s="57"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B85" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C85" s="49"/>
       <c r="D85" s="50"/>
       <c r="E85" s="51"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B86" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C86" s="49"/>
       <c r="D86" s="50"/>
       <c r="E86" s="51"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B87" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C87" s="49"/>
       <c r="D87" s="50"/>
       <c r="E87" s="51"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B88" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C88" s="52"/>
       <c r="D88" s="53"/>
       <c r="E88" s="54"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B89" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C89" s="52"/>
       <c r="D89" s="53"/>
       <c r="E89" s="54"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B90" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C90" s="52"/>
       <c r="D90" s="53"/>
       <c r="E90" s="54"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="24"/>
       <c r="B93" s="58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C93" s="58"/>
       <c r="D93" s="58"/>
       <c r="E93" s="59"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="8" t="s">
         <v>0</v>
       </c>
@@ -1881,7 +1893,7 @@
       <c r="D94" s="63"/>
       <c r="E94" s="63"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -1894,38 +1906,38 @@
       <c r="D95" s="56"/>
       <c r="E95" s="57"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" s="49" t="s">
         <v>62</v>
-      </c>
-      <c r="C96" s="49" t="s">
-        <v>63</v>
       </c>
       <c r="D96" s="50"/>
       <c r="E96" s="51"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D97" s="53"/>
       <c r="E97" s="54"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C98" s="60"/>
       <c r="D98" s="60"/>
       <c r="E98" s="60"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B99" s="62" t="s">
         <v>6</v>
       </c>
@@ -1933,66 +1945,66 @@
       <c r="D99" s="63"/>
       <c r="E99" s="63"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B100" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="7"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B101" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C101" s="55"/>
       <c r="D101" s="56"/>
       <c r="E101" s="57"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B102" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C102" s="55"/>
       <c r="D102" s="56"/>
       <c r="E102" s="57"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B103" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C103" s="49"/>
       <c r="D103" s="50"/>
       <c r="E103" s="51"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B104" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C104" s="52"/>
       <c r="D104" s="53"/>
       <c r="E104" s="54"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C105" s="60"/>
       <c r="D105" s="60"/>
       <c r="E105" s="60"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C106" s="61"/>
       <c r="D106" s="61"/>
       <c r="E106" s="61"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="24"/>
       <c r="B107" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C107" s="58"/>
       <c r="D107" s="58"/>
       <c r="E107" s="59"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
         <v>0</v>
       </c>
@@ -2005,7 +2017,7 @@
       <c r="D108" s="63"/>
       <c r="E108" s="63"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>3</v>
       </c>
@@ -2018,38 +2030,38 @@
       <c r="D109" s="56"/>
       <c r="E109" s="57"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C110" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D110" s="50"/>
       <c r="E110" s="51"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C111" s="52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D111" s="53"/>
       <c r="E111" s="54"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C112" s="60"/>
       <c r="D112" s="60"/>
       <c r="E112" s="60"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B113" s="62" t="s">
         <v>6</v>
       </c>
@@ -2057,82 +2069,82 @@
       <c r="D113" s="63"/>
       <c r="E113" s="63"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B114" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C114" s="20"/>
       <c r="D114" s="7"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B115" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C115" s="21"/>
       <c r="D115" s="56"/>
       <c r="E115" s="57"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B116" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C116" s="21"/>
       <c r="D116" s="56"/>
       <c r="E116" s="57"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B117" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C117" s="22"/>
       <c r="D117" s="50"/>
       <c r="E117" s="51"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B118" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C118" s="22"/>
       <c r="D118" s="50"/>
       <c r="E118" s="51"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B119" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C119" s="23"/>
       <c r="D119" s="53"/>
       <c r="E119" s="54"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B120" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C120" s="23"/>
       <c r="D120" s="53"/>
       <c r="E120" s="54"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C121" s="60"/>
       <c r="D121" s="60"/>
       <c r="E121" s="60"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C122" s="61"/>
       <c r="D122" s="61"/>
       <c r="E122" s="61"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="24"/>
       <c r="B123" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C123" s="58"/>
       <c r="D123" s="58"/>
       <c r="E123" s="59"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
         <v>0</v>
       </c>
@@ -2145,7 +2157,7 @@
       <c r="D124" s="63"/>
       <c r="E124" s="63"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>3</v>
       </c>
@@ -2158,38 +2170,38 @@
       <c r="D125" s="56"/>
       <c r="E125" s="57"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B126" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C126" s="49" t="s">
         <v>65</v>
-      </c>
-      <c r="C126" s="49" t="s">
-        <v>66</v>
       </c>
       <c r="D126" s="50"/>
       <c r="E126" s="51"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C127" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D127" s="53"/>
       <c r="E127" s="54"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C128" s="60"/>
       <c r="D128" s="60"/>
       <c r="E128" s="60"/>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B129" s="62" t="s">
         <v>6</v>
       </c>
@@ -2197,57 +2209,57 @@
       <c r="D129" s="63"/>
       <c r="E129" s="63"/>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B130" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C130" s="20"/>
       <c r="D130" s="7"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B131" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C131" s="21"/>
       <c r="D131" s="56"/>
       <c r="E131" s="57"/>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B132" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C132" s="21"/>
       <c r="D132" s="56"/>
       <c r="E132" s="57"/>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B133" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C133" s="22"/>
       <c r="D133" s="50"/>
       <c r="E133" s="51"/>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B134" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C134" s="22"/>
       <c r="D134" s="50"/>
       <c r="E134" s="51"/>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B135" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C135" s="23"/>
       <c r="D135" s="53"/>
       <c r="E135" s="54"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B136" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C136" s="23"/>
       <c r="D136" s="53"/>
@@ -2255,6 +2267,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C41:E41"/>
@@ -2271,18 +2295,6 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabelas equivalência e casos de teste.xlsx
+++ b/Tabelas equivalência e casos de teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eu\Documents\GitHub\ESII--TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46793A83-CD8D-4F79-B3A9-32150643853A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6B6B9A-CC66-42DC-AB40-0BD69E28A8B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17260" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
   <si>
     <t>Critério</t>
   </si>
@@ -131,45 +131,12 @@
     <t>matrizQ</t>
   </si>
   <si>
-    <t>numFiles = int, File[] = array, matrizM = double[][]</t>
-  </si>
-  <si>
-    <t>numFiles ≠ int, File[] ≠ array, matrizM ≠ double[][]</t>
-  </si>
-  <si>
     <t>numFiles &gt; 0, File[] ≠ null , matrizM ≠ null</t>
   </si>
   <si>
     <t>numFiles &lt;= 0, File[] = null, matrizM = null</t>
   </si>
   <si>
-    <t>numFiles = 1, File[] = "file.txt" , matrizM =[2][4]</t>
-  </si>
-  <si>
-    <t>numFiles = , File[] = "file.txt" , matrizM =[2][4]</t>
-  </si>
-  <si>
-    <t>numFiles = 1 2, File[] = "file.txt" , matrizM =[2][4]</t>
-  </si>
-  <si>
-    <t>numFiles = 'a', File[] = "file.txt" , matrizM =[2][4]</t>
-  </si>
-  <si>
-    <t>numFiles = 1, File[] = 1" , matrizM =[2][4]</t>
-  </si>
-  <si>
-    <t>numFiles = 1, File[] = "file.txt" , matrizM ='a'</t>
-  </si>
-  <si>
-    <t>numFiles = 0, File[] = "file.txt" , matrizM =[2][4]</t>
-  </si>
-  <si>
-    <t>numFiles = 1, File[] = null , matrizM =[2][4]</t>
-  </si>
-  <si>
-    <t>numFiles = 1, File[] = "file.txt" , matrizM = null</t>
-  </si>
-  <si>
     <t>grauSimilariedade</t>
   </si>
   <si>
@@ -285,6 +252,48 @@
   </si>
   <si>
     <t>src = ''"</t>
+  </si>
+  <si>
+    <t>≠ 4</t>
+  </si>
+  <si>
+    <t>numFiles = int, File[] = array, matrizM = double[][], scanner = Scanner</t>
+  </si>
+  <si>
+    <t>numFiles ≠ int, File[] ≠ array, matrizM ≠ double[][],  scanner ≠ Scanner</t>
+  </si>
+  <si>
+    <t>numFiles = 1, File[] = "file.txt" , matrizM =[2][4], scanner =''</t>
+  </si>
+  <si>
+    <t>numFiles = 1, File[] = "file.txt" , matrizM ='a', scanner ="a"</t>
+  </si>
+  <si>
+    <t>numFiles = 1, File[] = 1" , matrizM =[2][4], scanner ="a"</t>
+  </si>
+  <si>
+    <t>numFiles = 'a', File[] = "file.txt" , matrizM =[2][4], scanner ="a"</t>
+  </si>
+  <si>
+    <t>numFiles = 1 2, File[] = "file.txt" , matrizM =[2][4], scanner ="a"</t>
+  </si>
+  <si>
+    <t>numFiles = , File[] = "file.txt" , matrizM =[2][4], scanner ="a"</t>
+  </si>
+  <si>
+    <t>numFiles = 1, File[] = "file.txt" , matrizM =[2][4], scanner ="a"</t>
+  </si>
+  <si>
+    <t>numFiles = 0, File[] = "file.txt" , matrizM =[2][4], scanner ="a"</t>
+  </si>
+  <si>
+    <t>numFiles = 1, File[] = null , matrizM =[2][4], scanner ="a"</t>
+  </si>
+  <si>
+    <t>numFiles = 1, File[] = "file.txt" , matrizM = null, scanner ="a"</t>
+  </si>
+  <si>
+    <t>numFiles = 1, File[] = "file.txt" , matrizM = null, scanner =null</t>
   </si>
 </sst>
 </file>
@@ -370,7 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -472,11 +481,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -653,52 +673,73 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1080,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1095,12 +1136,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="48"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -1109,11 +1150,11 @@
       <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -1122,11 +1163,11 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -1135,11 +1176,11 @@
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -1148,24 +1189,24 @@
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="76"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="35" t="s">
@@ -1208,23 +1249,23 @@
       <c r="E12" s="33"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="24"/>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="83"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
@@ -1233,11 +1274,11 @@
       <c r="B16" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
@@ -1246,24 +1287,24 @@
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="78"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
+        <v>69</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
@@ -1272,28 +1313,28 @@
       <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="76"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B22" s="35" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
@@ -1301,7 +1342,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" s="35" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C23" s="45"/>
       <c r="D23" s="46"/>
@@ -1325,7 +1366,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B26" s="35" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="43"/>
@@ -1333,12 +1374,12 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="24"/>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="83"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
@@ -1360,24 +1401,24 @@
       <c r="B31" s="3">
         <v>1</v>
       </c>
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="70"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="78"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="72"/>
-      <c r="E32" s="73"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="81"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
@@ -1386,16 +1427,16 @@
       <c r="B33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="76"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="72"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B35" s="18" t="s">
@@ -1446,23 +1487,23 @@
       <c r="E40" s="17"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="24"/>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="66"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="83"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
@@ -1484,24 +1525,24 @@
       <c r="B45" s="3">
         <v>1</v>
       </c>
-      <c r="C45" s="68" t="s">
+      <c r="C45" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="69"/>
-      <c r="E45" s="70"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="78"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="72"/>
-      <c r="E46" s="73"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="81"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
@@ -1510,16 +1551,16 @@
       <c r="B47" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="75"/>
-      <c r="E47" s="76"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="72"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B49" s="62" t="s">
@@ -1596,10 +1637,10 @@
         <v>3</v>
       </c>
       <c r="B59" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C59" s="55" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D59" s="56"/>
       <c r="E59" s="57"/>
@@ -1609,10 +1650,10 @@
         <v>4</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C60" s="49" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D60" s="50"/>
       <c r="E60" s="51"/>
@@ -1622,10 +1663,10 @@
         <v>5</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D61" s="53"/>
       <c r="E61" s="54"/>
@@ -1645,7 +1686,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B64" s="35" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
@@ -1653,7 +1694,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B65" s="35" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C65" s="55"/>
       <c r="D65" s="56"/>
@@ -1661,7 +1702,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B66" s="35" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C66" s="55"/>
       <c r="D66" s="56"/>
@@ -1669,7 +1710,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B67" s="35" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C67" s="49"/>
       <c r="D67" s="50"/>
@@ -1677,7 +1718,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B68" s="35" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="C68" s="49"/>
       <c r="D68" s="50"/>
@@ -1685,7 +1726,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B69" s="35" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C69" s="49"/>
       <c r="D69" s="50"/>
@@ -1693,15 +1734,15 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B70" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C70" s="52"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="54"/>
+        <v>77</v>
+      </c>
+      <c r="C70" s="64"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="66"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B71" s="35" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C71" s="52"/>
       <c r="D71" s="53"/>
@@ -1709,139 +1750,133 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B72" s="35" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C72" s="52"/>
       <c r="D72" s="53"/>
       <c r="E72" s="54"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
+      <c r="B73" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="52"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="54"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
+      <c r="B74" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="67"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="69"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="24"/>
-      <c r="B75" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="59"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="63"/>
-      <c r="E76" s="63"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="3">
-        <v>3</v>
-      </c>
-      <c r="C77" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="56"/>
-      <c r="E77" s="57"/>
+      <c r="B77" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="58"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="59"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C78" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D78" s="50"/>
-      <c r="E78" s="51"/>
+      <c r="B78" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C79" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="D79" s="53"/>
-      <c r="E79" s="54"/>
+      <c r="B79" s="3">
+        <v>3</v>
+      </c>
+      <c r="C79" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="56"/>
+      <c r="E79" s="57"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C80" s="60"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="60"/>
+      <c r="B80" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" s="50"/>
+      <c r="E80" s="51"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B81" s="62" t="s">
+      <c r="B81" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" s="53"/>
+      <c r="E81" s="54"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C82" s="60"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="60"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B83" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="63"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="63"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B82" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B83" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C83" s="55"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="57"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B84" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C84" s="55"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="57"/>
+        <v>40</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B85" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C85" s="49"/>
-      <c r="D85" s="50"/>
-      <c r="E85" s="51"/>
+        <v>41</v>
+      </c>
+      <c r="C85" s="55"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="57"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B86" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C86" s="49"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="51"/>
+        <v>42</v>
+      </c>
+      <c r="C86" s="55"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="57"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B87" s="35" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C87" s="49"/>
       <c r="D87" s="50"/>
@@ -1849,436 +1884,444 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B88" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C88" s="52"/>
-      <c r="D88" s="53"/>
-      <c r="E88" s="54"/>
+        <v>44</v>
+      </c>
+      <c r="C88" s="49"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="51"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B89" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C89" s="52"/>
-      <c r="D89" s="53"/>
-      <c r="E89" s="54"/>
+        <v>45</v>
+      </c>
+      <c r="C89" s="49"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="51"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B90" s="35" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C90" s="52"/>
       <c r="D90" s="53"/>
       <c r="E90" s="54"/>
     </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B91" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="52"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="54"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B92" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" s="52"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="54"/>
+    </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="24"/>
-      <c r="B93" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C93" s="58"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="59"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D94" s="63"/>
-      <c r="E94" s="63"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="3">
-        <v>1</v>
-      </c>
-      <c r="C95" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="56"/>
-      <c r="E95" s="57"/>
+      <c r="B95" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" s="58"/>
+      <c r="D95" s="58"/>
+      <c r="E95" s="59"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C96" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D96" s="50"/>
-      <c r="E96" s="51"/>
+      <c r="B96" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="63"/>
+      <c r="E96" s="63"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+      <c r="C97" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="56"/>
+      <c r="E97" s="57"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B98" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D98" s="50"/>
+      <c r="E98" s="51"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B99" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C97" s="52" t="s">
+      <c r="C99" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D97" s="53"/>
-      <c r="E97" s="54"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C98" s="60"/>
-      <c r="D98" s="60"/>
-      <c r="E98" s="60"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B99" s="62" t="s">
+      <c r="D99" s="53"/>
+      <c r="E99" s="54"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C100" s="60"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B101" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="63"/>
-      <c r="D99" s="63"/>
-      <c r="E99" s="63"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B100" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B101" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C101" s="55"/>
-      <c r="D101" s="56"/>
-      <c r="E101" s="57"/>
+      <c r="C101" s="63"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="63"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B102" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C102" s="55"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="57"/>
+        <v>26</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B103" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C103" s="49"/>
-      <c r="D103" s="50"/>
-      <c r="E103" s="51"/>
+        <v>52</v>
+      </c>
+      <c r="C103" s="55"/>
+      <c r="D103" s="56"/>
+      <c r="E103" s="57"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B104" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="55"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="57"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B105" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" s="49"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="51"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B106" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="52"/>
-      <c r="D104" s="53"/>
-      <c r="E104" s="54"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C105" s="60"/>
-      <c r="D105" s="60"/>
-      <c r="E105" s="60"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C106" s="61"/>
-      <c r="D106" s="61"/>
-      <c r="E106" s="61"/>
+      <c r="C106" s="52"/>
+      <c r="D106" s="53"/>
+      <c r="E106" s="54"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="24"/>
-      <c r="B107" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C107" s="58"/>
-      <c r="D107" s="58"/>
-      <c r="E107" s="59"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="60"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B108" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" s="63"/>
-      <c r="E108" s="63"/>
+      <c r="C108" s="61"/>
+      <c r="D108" s="61"/>
+      <c r="E108" s="61"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B109" s="3">
-        <v>1</v>
-      </c>
-      <c r="C109" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="56"/>
-      <c r="E109" s="57"/>
+      <c r="B109" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C109" s="58"/>
+      <c r="D109" s="58"/>
+      <c r="E109" s="59"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C110" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="D110" s="50"/>
-      <c r="E110" s="51"/>
+      <c r="B110" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="63"/>
+      <c r="E110" s="63"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C111" s="52" t="s">
+      <c r="B111" s="3">
+        <v>1</v>
+      </c>
+      <c r="C111" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="56"/>
+      <c r="E111" s="57"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B112" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C112" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112" s="50"/>
+      <c r="E112" s="51"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B113" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C113" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D111" s="53"/>
-      <c r="E111" s="54"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C112" s="60"/>
-      <c r="D112" s="60"/>
-      <c r="E112" s="60"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B113" s="62" t="s">
+      <c r="D113" s="53"/>
+      <c r="E113" s="54"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C114" s="60"/>
+      <c r="D114" s="60"/>
+      <c r="E114" s="60"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B115" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C113" s="63"/>
-      <c r="D113" s="63"/>
-      <c r="E113" s="63"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B114" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C114" s="20"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="1"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B115" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C115" s="21"/>
-      <c r="D115" s="56"/>
-      <c r="E115" s="57"/>
+      <c r="C115" s="63"/>
+      <c r="D115" s="63"/>
+      <c r="E115" s="63"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B116" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C116" s="21"/>
-      <c r="D116" s="56"/>
-      <c r="E116" s="57"/>
+        <v>26</v>
+      </c>
+      <c r="C116" s="20"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B117" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C117" s="22"/>
-      <c r="D117" s="50"/>
-      <c r="E117" s="51"/>
+        <v>52</v>
+      </c>
+      <c r="C117" s="21"/>
+      <c r="D117" s="56"/>
+      <c r="E117" s="57"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B118" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C118" s="22"/>
-      <c r="D118" s="50"/>
-      <c r="E118" s="51"/>
+        <v>68</v>
+      </c>
+      <c r="C118" s="21"/>
+      <c r="D118" s="56"/>
+      <c r="E118" s="57"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B119" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C119" s="23"/>
-      <c r="D119" s="53"/>
-      <c r="E119" s="54"/>
+        <v>29</v>
+      </c>
+      <c r="C119" s="22"/>
+      <c r="D119" s="50"/>
+      <c r="E119" s="51"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B120" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C120" s="23"/>
-      <c r="D120" s="53"/>
-      <c r="E120" s="54"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="50"/>
+      <c r="E120" s="51"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C121" s="60"/>
-      <c r="D121" s="60"/>
-      <c r="E121" s="60"/>
+      <c r="B121" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" s="23"/>
+      <c r="D121" s="53"/>
+      <c r="E121" s="54"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C122" s="61"/>
-      <c r="D122" s="61"/>
-      <c r="E122" s="61"/>
+      <c r="B122" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122" s="23"/>
+      <c r="D122" s="53"/>
+      <c r="E122" s="54"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="24"/>
-      <c r="B123" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="C123" s="58"/>
-      <c r="D123" s="58"/>
-      <c r="E123" s="59"/>
+      <c r="C123" s="60"/>
+      <c r="D123" s="60"/>
+      <c r="E123" s="60"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B124" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C124" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D124" s="63"/>
-      <c r="E124" s="63"/>
+      <c r="C124" s="61"/>
+      <c r="D124" s="61"/>
+      <c r="E124" s="61"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="3">
-        <v>2</v>
-      </c>
-      <c r="C125" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="56"/>
-      <c r="E125" s="57"/>
+      <c r="B125" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C125" s="58"/>
+      <c r="D125" s="58"/>
+      <c r="E125" s="59"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C126" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="D126" s="50"/>
-      <c r="E126" s="51"/>
+      <c r="B126" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" s="63"/>
+      <c r="E126" s="63"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B127" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C127" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D127" s="53"/>
-      <c r="E127" s="54"/>
+      <c r="B127" s="3">
+        <v>2</v>
+      </c>
+      <c r="C127" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="56"/>
+      <c r="E127" s="57"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C128" s="60"/>
-      <c r="D128" s="60"/>
-      <c r="E128" s="60"/>
+      <c r="B128" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C128" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D128" s="50"/>
+      <c r="E128" s="51"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B129" s="62" t="s">
+      <c r="B129" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C129" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D129" s="53"/>
+      <c r="E129" s="54"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C130" s="60"/>
+      <c r="D130" s="60"/>
+      <c r="E130" s="60"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B131" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C129" s="63"/>
-      <c r="D129" s="63"/>
-      <c r="E129" s="63"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B130" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C130" s="20"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="1"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B131" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C131" s="21"/>
-      <c r="D131" s="56"/>
-      <c r="E131" s="57"/>
+      <c r="C131" s="63"/>
+      <c r="D131" s="63"/>
+      <c r="E131" s="63"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B132" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C132" s="21"/>
-      <c r="D132" s="56"/>
-      <c r="E132" s="57"/>
+        <v>57</v>
+      </c>
+      <c r="C132" s="20"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="1"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B133" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C133" s="22"/>
-      <c r="D133" s="50"/>
-      <c r="E133" s="51"/>
+        <v>58</v>
+      </c>
+      <c r="C133" s="21"/>
+      <c r="D133" s="56"/>
+      <c r="E133" s="57"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B134" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C134" s="22"/>
-      <c r="D134" s="50"/>
-      <c r="E134" s="51"/>
+        <v>59</v>
+      </c>
+      <c r="C134" s="21"/>
+      <c r="D134" s="56"/>
+      <c r="E134" s="57"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B135" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C135" s="23"/>
-      <c r="D135" s="53"/>
-      <c r="E135" s="54"/>
+        <v>60</v>
+      </c>
+      <c r="C135" s="22"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="51"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B136" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C136" s="23"/>
-      <c r="D136" s="53"/>
-      <c r="E136" s="54"/>
+        <v>61</v>
+      </c>
+      <c r="C136" s="22"/>
+      <c r="D136" s="50"/>
+      <c r="E136" s="51"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B137" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C137" s="23"/>
+      <c r="D137" s="53"/>
+      <c r="E137" s="54"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B138" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C138" s="23"/>
+      <c r="D138" s="53"/>
+      <c r="E138" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C41:E41"/>
@@ -2295,6 +2338,18 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
